--- a/datasets/unemployment/unemployment_rate_reformat.xlsx
+++ b/datasets/unemployment/unemployment_rate_reformat.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wye\Documents\UIUC MCS\CS498\Create a narrative visualization\CS498NarrativeVisualization\datasets\unemployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D54133-478F-41CD-A139-75643ECE6677}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4E50D-D3D8-477D-A1C4-D5EE279BDAC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1410" windowWidth="24465" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2745" yWindow="3765" windowWidth="24465" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Jan-2010</t>
   </si>
   <si>
@@ -445,6 +439,9 @@
   </si>
   <si>
     <t>25 years and over - Some college or associate degree</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -534,19 +531,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BLS Data Series"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -814,9 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -826,48 +808,48 @@
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4">
         <v>26.1</v>
@@ -908,7 +890,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>25.6</v>
@@ -949,7 +931,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>26.2</v>
@@ -990,7 +972,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4">
         <v>25.4</v>
@@ -1031,7 +1013,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
         <v>26.5</v>
@@ -1072,7 +1054,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
         <v>25.9</v>
@@ -1113,7 +1095,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
         <v>25.9</v>
@@ -1154,7 +1136,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
         <v>25.5</v>
@@ -1195,7 +1177,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
         <v>25.8</v>
@@ -1236,7 +1218,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
         <v>27.2</v>
@@ -1277,7 +1259,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
         <v>24.8</v>
@@ -1318,7 +1300,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4">
         <v>25.3</v>
@@ -1359,7 +1341,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4">
         <v>25.7</v>
@@ -1400,7 +1382,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>24.1</v>
@@ -1441,7 +1423,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4">
         <v>24.4</v>
@@ -1482,7 +1464,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4">
         <v>24.7</v>
@@ -1523,7 +1505,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4">
         <v>23.9</v>
@@ -1564,7 +1546,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4">
         <v>24.5</v>
@@ -1605,7 +1587,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4">
         <v>24.7</v>
@@ -1646,7 +1628,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4">
         <v>25</v>
@@ -1687,7 +1669,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4">
         <v>24.4</v>
@@ -1728,7 +1710,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4">
         <v>24.2</v>
@@ -1769,7 +1751,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4">
         <v>24.2</v>
@@ -1810,7 +1792,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4">
         <v>23.3</v>
@@ -1851,7 +1833,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4">
         <v>23.6</v>
@@ -1892,7 +1874,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4">
         <v>23.8</v>
@@ -1933,7 +1915,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4">
         <v>24.8</v>
@@ -1974,7 +1956,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4">
         <v>25</v>
@@ -2015,7 +1997,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4">
         <v>24.4</v>
@@ -2056,7 +2038,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4">
         <v>23.3</v>
@@ -2097,7 +2079,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4">
         <v>23.6</v>
@@ -2138,7 +2120,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4">
         <v>24.2</v>
@@ -2179,7 +2161,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4">
         <v>23.8</v>
@@ -2220,7 +2202,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="4">
         <v>23.9</v>
@@ -2261,7 +2243,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="4">
         <v>23.9</v>
@@ -2302,7 +2284,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="4">
         <v>24.1</v>
@@ -2343,7 +2325,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4">
         <v>23.7</v>
@@ -2384,7 +2366,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4">
         <v>25.2</v>
@@ -2425,7 +2407,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4">
         <v>24</v>
@@ -2466,7 +2448,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4">
         <v>24.4</v>
@@ -2507,7 +2489,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="4">
         <v>24.4</v>
@@ -2548,7 +2530,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="4">
         <v>23.1</v>
@@ -2589,7 +2571,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="4">
         <v>23.3</v>
@@ -2630,7 +2612,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="4">
         <v>22.5</v>
@@ -2671,7 +2653,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="4">
         <v>21.3</v>
@@ -2712,7 +2694,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="4">
         <v>22.2</v>
@@ -2753,7 +2735,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="4">
         <v>20.7</v>
@@ -2794,7 +2776,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="4">
         <v>20.399999999999999</v>
@@ -2835,7 +2817,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4">
         <v>20.399999999999999</v>
@@ -2876,7 +2858,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4">
         <v>21.4</v>
@@ -2917,7 +2899,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="4">
         <v>20.8</v>
@@ -2958,7 +2940,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="4">
         <v>19.399999999999999</v>
@@ -2999,7 +2981,7 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="4">
         <v>19.3</v>
@@ -3040,7 +3022,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="4">
         <v>20.399999999999999</v>
@@ -3081,7 +3063,7 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="4">
         <v>20.3</v>
@@ -3122,7 +3104,7 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="4">
         <v>19.399999999999999</v>
@@ -3163,7 +3145,7 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="4">
         <v>20.100000000000001</v>
@@ -3204,7 +3186,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="4">
         <v>18.7</v>
@@ -3245,7 +3227,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="4">
         <v>17.2</v>
@@ -3286,7 +3268,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="4">
         <v>16.899999999999999</v>
@@ -3327,7 +3309,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4">
         <v>18.5</v>
@@ -3368,7 +3350,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="4">
         <v>16.899999999999999</v>
@@ -3409,7 +3391,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="4">
         <v>17.5</v>
@@ -3450,7 +3432,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="4">
         <v>17.2</v>
@@ -3491,7 +3473,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="4">
         <v>17.8</v>
@@ -3532,7 +3514,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="4">
         <v>18</v>
@@ -3573,7 +3555,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="4">
         <v>16.399999999999999</v>
@@ -3614,7 +3596,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="4">
         <v>16.899999999999999</v>
@@ -3655,7 +3637,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="4">
         <v>16.5</v>
@@ -3696,7 +3678,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="4">
         <v>15.9</v>
@@ -3737,7 +3719,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="4">
         <v>15.3</v>
@@ -3778,7 +3760,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="4">
         <v>16.2</v>
@@ -3819,7 +3801,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="4">
         <v>15.7</v>
@@ -3860,7 +3842,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="4">
         <v>15.2</v>
@@ -3901,7 +3883,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="4">
         <v>16</v>
@@ -3942,7 +3924,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="4">
         <v>16</v>
@@ -3983,7 +3965,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="4">
         <v>16</v>
@@ -4024,7 +4006,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="4">
         <v>16.100000000000001</v>
@@ -4065,7 +4047,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="4">
         <v>15.8</v>
@@ -4106,7 +4088,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="4">
         <v>15.9</v>
@@ -4147,7 +4129,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="4">
         <v>16.2</v>
@@ -4188,7 +4170,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="4">
         <v>15.8</v>
@@ -4229,7 +4211,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="4">
         <v>14.9</v>
@@ -4270,7 +4252,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="4">
         <v>14.5</v>
@@ -4311,7 +4293,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="4">
         <v>14.6</v>
@@ -4352,7 +4334,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="4">
         <v>14.4</v>
@@ -4393,7 +4375,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="4">
         <v>13.7</v>
@@ -4434,7 +4416,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="4">
         <v>14.7</v>
@@ -4475,7 +4457,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="4">
         <v>14.1</v>
@@ -4516,7 +4498,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="4">
         <v>13.4</v>
@@ -4557,7 +4539,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="4">
         <v>13.2</v>
@@ -4598,7 +4580,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="4">
         <v>13.9</v>
@@ -4639,7 +4621,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="4">
         <v>13.1</v>
@@ -4680,7 +4662,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="4">
         <v>14</v>
@@ -4721,7 +4703,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="4">
         <v>16.100000000000001</v>
@@ -4762,7 +4744,7 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="4">
         <v>13.7</v>
@@ -4803,7 +4785,7 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="4">
         <v>13.7</v>
@@ -4844,7 +4826,7 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="4">
         <v>14</v>
@@ -4885,7 +4867,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="4">
         <v>13.4</v>
@@ -4926,7 +4908,7 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="4">
         <v>12.8</v>
@@ -4967,7 +4949,7 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="4">
         <v>12.8</v>
@@ -5008,7 +4990,7 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="4">
         <v>12.6</v>
@@ -5049,7 +5031,7 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="4">
         <v>13</v>
@@ -5090,7 +5072,7 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="4">
         <v>12.8</v>
@@ -5131,7 +5113,7 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="4">
         <v>12.7</v>
@@ -5172,7 +5154,7 @@
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="4">
         <v>12.2</v>
@@ -5213,7 +5195,7 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="4">
         <v>12.4</v>
@@ -5254,7 +5236,7 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="4">
         <v>12.6</v>
@@ -5295,7 +5277,7 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="4">
         <v>12.9</v>
@@ -5336,7 +5318,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="4">
         <v>13.3</v>
@@ -5377,7 +5359,7 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="4">
         <v>12.7</v>
@@ -5418,7 +5400,7 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="4">
         <v>12.9</v>
@@ -5459,7 +5441,7 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="4">
         <v>12.6</v>
@@ -5500,7 +5482,7 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="4">
         <v>12.7</v>
@@ -5541,7 +5523,7 @@
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="4">
         <v>12.7</v>
@@ -5582,7 +5564,7 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="4">
         <v>12.5</v>
@@ -5623,7 +5605,7 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="4">
         <v>12.5</v>
@@ -5664,7 +5646,7 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="4">
         <v>12.3</v>
@@ -5705,7 +5687,7 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="4">
         <v>12</v>
@@ -5746,7 +5728,7 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="4">
         <v>12.6</v>
@@ -5787,7 +5769,7 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="4">
         <v>12.2</v>
@@ -5828,7 +5810,7 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="4">
         <v>11</v>
@@ -5869,7 +5851,7 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="4">
         <v>14.3</v>
@@ -5910,7 +5892,7 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="4">
         <v>31.9</v>
@@ -5951,7 +5933,7 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="4">
         <v>29.9</v>
@@ -5992,7 +5974,7 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="4">
         <v>23.2</v>

--- a/datasets/unemployment/unemployment_rate_reformat.xlsx
+++ b/datasets/unemployment/unemployment_rate_reformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wye\Documents\UIUC MCS\CS498\Create a narrative visualization\CS498NarrativeVisualization\datasets\unemployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD4E50D-D3D8-477D-A1C4-D5EE279BDAC3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E7A33-F2ED-4CC6-8B7E-B5714D527238}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="3765" windowWidth="24465" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,9 +411,6 @@
     <t>16 years and over</t>
   </si>
   <si>
-    <t xml:space="preserve">16 years and over - Asian </t>
-  </si>
-  <si>
     <t>16 years and over - Black or African American</t>
   </si>
   <si>
@@ -442,6 +439,9 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>16 years and over - Asian</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -514,6 +514,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -798,17 +804,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
     <col min="2" max="13" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>138</v>
+      <c r="A1" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>126</v>
@@ -817,34 +825,34 @@
         <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -6015,5 +6023,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datasets/unemployment/unemployment_rate_reformat.xlsx
+++ b/datasets/unemployment/unemployment_rate_reformat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wye\Documents\UIUC MCS\CS498\Create a narrative visualization\CS498NarrativeVisualization\datasets\unemployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40E7A33-F2ED-4CC6-8B7E-B5714D527238}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84328C20-EB7E-45C0-A842-03701F096EDB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2745" yWindow="3765" windowWidth="24465" windowHeight="11715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>Jan-2010</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>Jun-2020</t>
-  </si>
-  <si>
-    <t>16 to 19 years</t>
   </si>
   <si>
     <t>16 years and over</t>
@@ -802,30 +799,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:L127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="6" customWidth="1"/>
-    <col min="2" max="13" width="9.140625" style="3"/>
+    <col min="2" max="12" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="103.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>128</v>
@@ -840,7 +837,7 @@
         <v>131</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>134</v>
@@ -849,3925 +846,3637 @@
         <v>135</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>26.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C2" s="4">
-        <v>9.8000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="D2" s="4">
-        <v>8.3000000000000007</v>
+        <v>16.5</v>
       </c>
       <c r="E2" s="4">
-        <v>16.5</v>
+        <v>12.9</v>
       </c>
       <c r="F2" s="4">
-        <v>12.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="G2" s="4">
-        <v>8.8000000000000007</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H2" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="J2" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="I2" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="J2" s="4">
-        <v>15.3</v>
-      </c>
       <c r="K2" s="4">
-        <v>10.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="L2" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="M2" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>25.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C3" s="4">
-        <v>9.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D3" s="4">
-        <v>8.1999999999999993</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="E3" s="4">
-        <v>16.100000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="F3" s="4">
-        <v>12.7</v>
+        <v>8.9</v>
       </c>
       <c r="G3" s="4">
-        <v>8.9</v>
+        <v>10.3</v>
       </c>
       <c r="H3" s="4">
-        <v>10.3</v>
+        <v>8</v>
       </c>
       <c r="I3" s="4">
-        <v>8</v>
+        <v>15.8</v>
       </c>
       <c r="J3" s="4">
-        <v>15.8</v>
+        <v>10.7</v>
       </c>
       <c r="K3" s="4">
-        <v>10.7</v>
+        <v>8.1</v>
       </c>
       <c r="L3" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="M3" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>26.2</v>
+        <v>9.9</v>
       </c>
       <c r="C4" s="4">
-        <v>9.9</v>
+        <v>7.6</v>
       </c>
       <c r="D4" s="4">
-        <v>7.6</v>
+        <v>16.8</v>
       </c>
       <c r="E4" s="4">
-        <v>16.8</v>
+        <v>12.9</v>
       </c>
       <c r="F4" s="4">
-        <v>12.9</v>
+        <v>8.9</v>
       </c>
       <c r="G4" s="4">
-        <v>8.9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H4" s="4">
-        <v>10.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="I4" s="4">
-        <v>8.1</v>
+        <v>14.9</v>
       </c>
       <c r="J4" s="4">
-        <v>14.9</v>
+        <v>11</v>
       </c>
       <c r="K4" s="4">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="L4" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="M4" s="4">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>25.4</v>
+        <v>9.9</v>
       </c>
       <c r="C5" s="4">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4">
-        <v>7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="E5" s="4">
-        <v>16.600000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="F5" s="4">
-        <v>12.5</v>
+        <v>9</v>
       </c>
       <c r="G5" s="4">
-        <v>9</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H5" s="4">
-        <v>10.199999999999999</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I5" s="4">
-        <v>8.3000000000000007</v>
+        <v>14.7</v>
       </c>
       <c r="J5" s="4">
-        <v>14.7</v>
+        <v>10.8</v>
       </c>
       <c r="K5" s="4">
-        <v>10.8</v>
+        <v>8.4</v>
       </c>
       <c r="L5" s="4">
-        <v>8.4</v>
-      </c>
-      <c r="M5" s="4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>26.5</v>
+        <v>9.6</v>
       </c>
       <c r="C6" s="4">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="D6" s="4">
-        <v>7.8</v>
+        <v>15.5</v>
       </c>
       <c r="E6" s="4">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="F6" s="4">
-        <v>12</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G6" s="4">
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H6" s="4">
-        <v>9.6999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="I6" s="4">
-        <v>8.1</v>
+        <v>14.6</v>
       </c>
       <c r="J6" s="4">
-        <v>14.6</v>
+        <v>10.9</v>
       </c>
       <c r="K6" s="4">
-        <v>10.9</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L6" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M6" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>25.9</v>
+        <v>9.4</v>
       </c>
       <c r="C7" s="4">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="D7" s="4">
-        <v>7.4</v>
+        <v>15.2</v>
       </c>
       <c r="E7" s="4">
-        <v>15.2</v>
+        <v>12.3</v>
       </c>
       <c r="F7" s="4">
-        <v>12.3</v>
+        <v>8.6</v>
       </c>
       <c r="G7" s="4">
-        <v>8.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H7" s="4">
-        <v>9.6999999999999993</v>
+        <v>7.7</v>
       </c>
       <c r="I7" s="4">
-        <v>7.7</v>
+        <v>14.2</v>
       </c>
       <c r="J7" s="4">
-        <v>14.2</v>
+        <v>10.6</v>
       </c>
       <c r="K7" s="4">
-        <v>10.6</v>
+        <v>8.1</v>
       </c>
       <c r="L7" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="M7" s="4">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>25.9</v>
+        <v>9.4</v>
       </c>
       <c r="C8" s="4">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="D8" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9.6</v>
+      </c>
+      <c r="H8" s="4">
         <v>7.9</v>
       </c>
-      <c r="E8" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="F8" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="H8" s="4">
-        <v>9.6</v>
-      </c>
       <c r="I8" s="4">
-        <v>7.9</v>
+        <v>13.5</v>
       </c>
       <c r="J8" s="4">
-        <v>13.5</v>
+        <v>10</v>
       </c>
       <c r="K8" s="4">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L8" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M8" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>25.5</v>
+        <v>9.5</v>
       </c>
       <c r="C9" s="4">
-        <v>9.5</v>
+        <v>7.3</v>
       </c>
       <c r="D9" s="4">
-        <v>7.3</v>
+        <v>15.9</v>
       </c>
       <c r="E9" s="4">
-        <v>15.9</v>
+        <v>12</v>
       </c>
       <c r="F9" s="4">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="G9" s="4">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="H9" s="4">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4">
-        <v>8</v>
+        <v>14.1</v>
       </c>
       <c r="J9" s="4">
-        <v>14.1</v>
+        <v>10</v>
       </c>
       <c r="K9" s="4">
-        <v>10</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="L9" s="4">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M9" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>25.8</v>
+        <v>9.5</v>
       </c>
       <c r="C10" s="4">
-        <v>9.5</v>
+        <v>6.6</v>
       </c>
       <c r="D10" s="4">
-        <v>6.6</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4">
-        <v>16</v>
+        <v>12.3</v>
       </c>
       <c r="F10" s="4">
-        <v>12.3</v>
+        <v>8.6</v>
       </c>
       <c r="G10" s="4">
-        <v>8.6</v>
+        <v>9.6</v>
       </c>
       <c r="H10" s="4">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="I10" s="4">
-        <v>8</v>
+        <v>15.6</v>
       </c>
       <c r="J10" s="4">
-        <v>15.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K10" s="4">
-        <v>9.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="L10" s="4">
-        <v>8.9</v>
-      </c>
-      <c r="M10" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>27.2</v>
+        <v>9.4</v>
       </c>
       <c r="C11" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E11" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="G11" s="4">
         <v>9.4</v>
       </c>
-      <c r="D11" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="E11" s="4">
-        <v>15.6</v>
-      </c>
-      <c r="F11" s="4">
-        <v>12.3</v>
-      </c>
-      <c r="G11" s="4">
-        <v>8.6</v>
-      </c>
       <c r="H11" s="4">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="I11" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J11" s="4">
-        <v>15</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K11" s="4">
-        <v>9.8000000000000007</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="L11" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="M11" s="4">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>24.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C12" s="4">
-        <v>9.8000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="D12" s="4">
-        <v>7.5</v>
+        <v>16.2</v>
       </c>
       <c r="E12" s="4">
-        <v>16.2</v>
+        <v>12.9</v>
       </c>
       <c r="F12" s="4">
-        <v>12.9</v>
+        <v>8.9</v>
       </c>
       <c r="G12" s="4">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="H12" s="4">
-        <v>9.9</v>
+        <v>8.4</v>
       </c>
       <c r="I12" s="4">
-        <v>8.4</v>
+        <v>15.4</v>
       </c>
       <c r="J12" s="4">
-        <v>15.4</v>
+        <v>10</v>
       </c>
       <c r="K12" s="4">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="L12" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="M12" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="4">
-        <v>25.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C13" s="4">
-        <v>9.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="D13" s="4">
-        <v>7.2</v>
+        <v>15.5</v>
       </c>
       <c r="E13" s="4">
-        <v>15.5</v>
+        <v>12.9</v>
       </c>
       <c r="F13" s="4">
-        <v>12.9</v>
+        <v>8.5</v>
       </c>
       <c r="G13" s="4">
-        <v>8.5</v>
+        <v>9.4</v>
       </c>
       <c r="H13" s="4">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="I13" s="4">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J13" s="4">
-        <v>15</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="K13" s="4">
-        <v>9.8000000000000007</v>
+        <v>8.1</v>
       </c>
       <c r="L13" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="M13" s="4">
         <v>4.8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="4">
-        <v>25.7</v>
+        <v>9.1</v>
       </c>
       <c r="C14" s="4">
-        <v>9.1</v>
+        <v>6.8</v>
       </c>
       <c r="D14" s="4">
-        <v>6.8</v>
+        <v>15.8</v>
       </c>
       <c r="E14" s="4">
-        <v>15.8</v>
+        <v>12.3</v>
       </c>
       <c r="F14" s="4">
-        <v>12.3</v>
+        <v>8.1</v>
       </c>
       <c r="G14" s="4">
+        <v>9</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="I14" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="K14" s="4">
         <v>8.1</v>
       </c>
-      <c r="H14" s="4">
-        <v>9</v>
-      </c>
-      <c r="I14" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="J14" s="4">
-        <v>14.3</v>
-      </c>
-      <c r="K14" s="4">
-        <v>9.5</v>
-      </c>
       <c r="L14" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="M14" s="4">
         <v>4.3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
-        <v>24.1</v>
+        <v>9</v>
       </c>
       <c r="C15" s="4">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="D15" s="4">
-        <v>6.7</v>
+        <v>15.5</v>
       </c>
       <c r="E15" s="4">
-        <v>15.5</v>
+        <v>11.8</v>
       </c>
       <c r="F15" s="4">
-        <v>11.8</v>
+        <v>8.1</v>
       </c>
       <c r="G15" s="4">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="H15" s="4">
-        <v>8.9</v>
+        <v>7.9</v>
       </c>
       <c r="I15" s="4">
+        <v>14</v>
+      </c>
+      <c r="J15" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K15" s="4">
         <v>7.9</v>
       </c>
-      <c r="J15" s="4">
-        <v>14</v>
-      </c>
-      <c r="K15" s="4">
-        <v>9.6999999999999993</v>
-      </c>
       <c r="L15" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="M15" s="4">
         <v>4.3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="4">
-        <v>24.4</v>
+        <v>9</v>
       </c>
       <c r="C16" s="4">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="D16" s="4">
-        <v>7.3</v>
+        <v>15.8</v>
       </c>
       <c r="E16" s="4">
-        <v>15.8</v>
+        <v>11.6</v>
       </c>
       <c r="F16" s="4">
-        <v>11.6</v>
+        <v>8</v>
       </c>
       <c r="G16" s="4">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H16" s="4">
-        <v>8.8000000000000007</v>
+        <v>7.8</v>
       </c>
       <c r="I16" s="4">
-        <v>7.8</v>
+        <v>14.1</v>
       </c>
       <c r="J16" s="4">
-        <v>14.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="K16" s="4">
-        <v>9.6999999999999993</v>
+        <v>7.5</v>
       </c>
       <c r="L16" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="M16" s="4">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B17" s="4">
-        <v>24.7</v>
+        <v>9.1</v>
       </c>
       <c r="C17" s="4">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="D17" s="4">
-        <v>6.5</v>
+        <v>16.5</v>
       </c>
       <c r="E17" s="4">
-        <v>16.5</v>
+        <v>11.9</v>
       </c>
       <c r="F17" s="4">
-        <v>11.9</v>
+        <v>8.1</v>
       </c>
       <c r="G17" s="4">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="H17" s="4">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="I17" s="4">
-        <v>8</v>
+        <v>14.7</v>
       </c>
       <c r="J17" s="4">
-        <v>14.7</v>
+        <v>9.9</v>
       </c>
       <c r="K17" s="4">
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
       <c r="L17" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="M17" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B18" s="4">
-        <v>23.9</v>
+        <v>9</v>
       </c>
       <c r="C18" s="4">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="D18" s="4">
-        <v>7.2</v>
+        <v>16.3</v>
       </c>
       <c r="E18" s="4">
-        <v>16.3</v>
+        <v>11.6</v>
       </c>
       <c r="F18" s="4">
-        <v>11.6</v>
+        <v>7.9</v>
       </c>
       <c r="G18" s="4">
-        <v>7.9</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H18" s="4">
-        <v>8.8000000000000007</v>
+        <v>8</v>
       </c>
       <c r="I18" s="4">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="J18" s="4">
-        <v>14.5</v>
+        <v>9.6</v>
       </c>
       <c r="K18" s="4">
-        <v>9.6</v>
+        <v>7.8</v>
       </c>
       <c r="L18" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="M18" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B19" s="4">
-        <v>24.5</v>
+        <v>9.1</v>
       </c>
       <c r="C19" s="4">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="D19" s="4">
-        <v>6.5</v>
+        <v>16.2</v>
       </c>
       <c r="E19" s="4">
-        <v>16.2</v>
+        <v>11.5</v>
       </c>
       <c r="F19" s="4">
-        <v>11.5</v>
+        <v>8.1</v>
       </c>
       <c r="G19" s="4">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="H19" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="4">
-        <v>8</v>
+        <v>14.4</v>
       </c>
       <c r="J19" s="4">
-        <v>14.4</v>
+        <v>10</v>
       </c>
       <c r="K19" s="4">
-        <v>10</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L19" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M19" s="4">
         <v>4.3</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="4">
-        <v>24.7</v>
+        <v>9</v>
       </c>
       <c r="C20" s="4">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="D20" s="4">
-        <v>7.4</v>
+        <v>15.9</v>
       </c>
       <c r="E20" s="4">
-        <v>15.9</v>
+        <v>11.2</v>
       </c>
       <c r="F20" s="4">
-        <v>11.2</v>
+        <v>8</v>
       </c>
       <c r="G20" s="4">
-        <v>8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="H20" s="4">
-        <v>8.8000000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="I20" s="4">
-        <v>7.9</v>
+        <v>14.5</v>
       </c>
       <c r="J20" s="4">
-        <v>14.5</v>
+        <v>9.1</v>
       </c>
       <c r="K20" s="4">
-        <v>9.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L20" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M20" s="4">
         <v>4.2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C21" s="4">
-        <v>9</v>
+        <v>7.2</v>
       </c>
       <c r="D21" s="4">
-        <v>7.2</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="E21" s="4">
-        <v>16.399999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F21" s="4">
-        <v>11.2</v>
+        <v>7.9</v>
       </c>
       <c r="G21" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H21" s="4">
         <v>7.9</v>
       </c>
-      <c r="H21" s="4">
-        <v>8.6999999999999993</v>
-      </c>
       <c r="I21" s="4">
-        <v>7.9</v>
+        <v>14.1</v>
       </c>
       <c r="J21" s="4">
-        <v>14.1</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K21" s="4">
-        <v>9.3000000000000007</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="L21" s="4">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="M21" s="4">
         <v>4.2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>24.4</v>
+        <v>9</v>
       </c>
       <c r="C22" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="4">
-        <v>8</v>
+        <v>15.9</v>
       </c>
       <c r="E22" s="4">
-        <v>15.9</v>
+        <v>11.2</v>
       </c>
       <c r="F22" s="4">
-        <v>11.2</v>
+        <v>7.9</v>
       </c>
       <c r="G22" s="4">
-        <v>7.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H22" s="4">
-        <v>8.6999999999999993</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="I22" s="4">
-        <v>8.1999999999999993</v>
+        <v>14.3</v>
       </c>
       <c r="J22" s="4">
-        <v>14.3</v>
+        <v>9.4</v>
       </c>
       <c r="K22" s="4">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="L22" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="M22" s="4">
         <v>4.2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="4">
-        <v>24.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="C23" s="4">
-        <v>8.8000000000000007</v>
+        <v>7.4</v>
       </c>
       <c r="D23" s="4">
-        <v>7.4</v>
+        <v>14.6</v>
       </c>
       <c r="E23" s="4">
-        <v>14.6</v>
+        <v>11.3</v>
       </c>
       <c r="F23" s="4">
-        <v>11.3</v>
+        <v>7.9</v>
       </c>
       <c r="G23" s="4">
-        <v>7.9</v>
+        <v>8.6</v>
       </c>
       <c r="H23" s="4">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="I23" s="4">
-        <v>7.8</v>
+        <v>13.5</v>
       </c>
       <c r="J23" s="4">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="K23" s="4">
-        <v>9.4</v>
+        <v>8.1</v>
       </c>
       <c r="L23" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="M23" s="4">
         <v>4.3</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="4">
-        <v>24.2</v>
+        <v>8.6</v>
       </c>
       <c r="C24" s="4">
-        <v>8.6</v>
+        <v>6.4</v>
       </c>
       <c r="D24" s="4">
-        <v>6.4</v>
+        <v>15.6</v>
       </c>
       <c r="E24" s="4">
-        <v>15.6</v>
+        <v>11.2</v>
       </c>
       <c r="F24" s="4">
-        <v>11.2</v>
+        <v>7.7</v>
       </c>
       <c r="G24" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H24" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="I24" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="J24" s="4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K24" s="4">
         <v>7.7</v>
       </c>
-      <c r="H24" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="I24" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="J24" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="K24" s="4">
-        <v>8.8000000000000007</v>
-      </c>
       <c r="L24" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="M24" s="4">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="4">
-        <v>23.3</v>
+        <v>8.5</v>
       </c>
       <c r="C25" s="4">
-        <v>8.5</v>
+        <v>6.8</v>
       </c>
       <c r="D25" s="4">
-        <v>6.8</v>
+        <v>15.4</v>
       </c>
       <c r="E25" s="4">
-        <v>15.4</v>
+        <v>11.1</v>
       </c>
       <c r="F25" s="4">
-        <v>11.1</v>
+        <v>7.5</v>
       </c>
       <c r="G25" s="4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H25" s="4">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="I25" s="4">
-        <v>7.8</v>
+        <v>13.7</v>
       </c>
       <c r="J25" s="4">
-        <v>13.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K25" s="4">
-        <v>8.6999999999999993</v>
+        <v>7.6</v>
       </c>
       <c r="L25" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="M25" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="4">
-        <v>23.6</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C26" s="4">
-        <v>8.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="D26" s="4">
-        <v>6.7</v>
+        <v>13.6</v>
       </c>
       <c r="E26" s="4">
-        <v>13.6</v>
+        <v>10.7</v>
       </c>
       <c r="F26" s="4">
-        <v>10.7</v>
+        <v>7.4</v>
       </c>
       <c r="G26" s="4">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="H26" s="4">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="I26" s="4">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="J26" s="4">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="K26" s="4">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="L26" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="M26" s="4">
         <v>4.3</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="4">
-        <v>23.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="C27" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="D27" s="4">
+        <v>14</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="F27" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="G27" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H27" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="I27" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="J27" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D27" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="E27" s="4">
-        <v>14</v>
-      </c>
-      <c r="F27" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="G27" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="H27" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="I27" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="J27" s="4">
-        <v>13.1</v>
-      </c>
       <c r="K27" s="4">
-        <v>8.3000000000000007</v>
+        <v>7.2</v>
       </c>
       <c r="L27" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="M27" s="4">
         <v>4.2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="4">
-        <v>24.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C28" s="4">
-        <v>8.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="D28" s="4">
-        <v>6.4</v>
+        <v>14</v>
       </c>
       <c r="E28" s="4">
-        <v>14</v>
+        <v>10.6</v>
       </c>
       <c r="F28" s="4">
-        <v>10.6</v>
+        <v>7.3</v>
       </c>
       <c r="G28" s="4">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H28" s="4">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="I28" s="4">
-        <v>7.4</v>
+        <v>12.8</v>
       </c>
       <c r="J28" s="4">
-        <v>12.8</v>
+        <v>8.1</v>
       </c>
       <c r="K28" s="4">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
       <c r="L28" s="4">
-        <v>7.5</v>
-      </c>
-      <c r="M28" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="4">
-        <v>25</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C29" s="4">
-        <v>8.1999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="D29" s="4">
-        <v>5.4</v>
+        <v>13.3</v>
       </c>
       <c r="E29" s="4">
-        <v>13.3</v>
+        <v>10.3</v>
       </c>
       <c r="F29" s="4">
-        <v>10.3</v>
+        <v>7.4</v>
       </c>
       <c r="G29" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="H29" s="4">
         <v>7.4</v>
       </c>
-      <c r="H29" s="4">
+      <c r="I29" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>8</v>
+      </c>
+      <c r="K29" s="4">
         <v>7.6</v>
       </c>
-      <c r="I29" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="J29" s="4">
-        <v>12.5</v>
-      </c>
-      <c r="K29" s="4">
-        <v>8</v>
-      </c>
       <c r="L29" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="M29" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="4">
-        <v>24.4</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C30" s="4">
-        <v>8.1999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="D30" s="4">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="E30" s="4">
-        <v>13.5</v>
+        <v>10.9</v>
       </c>
       <c r="F30" s="4">
-        <v>10.9</v>
+        <v>7.4</v>
       </c>
       <c r="G30" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H30" s="4">
         <v>7.4</v>
       </c>
-      <c r="H30" s="4">
+      <c r="I30" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="J30" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K30" s="4">
         <v>7.7</v>
       </c>
-      <c r="I30" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="J30" s="4">
-        <v>12.9</v>
-      </c>
-      <c r="K30" s="4">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="L30" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="M30" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="4">
-        <v>23.3</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C31" s="4">
-        <v>8.1999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="D31" s="4">
-        <v>6.1</v>
+        <v>14.5</v>
       </c>
       <c r="E31" s="4">
-        <v>14.5</v>
+        <v>10.9</v>
       </c>
       <c r="F31" s="4">
-        <v>10.9</v>
+        <v>7.3</v>
       </c>
       <c r="G31" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="H31" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="I31" s="4">
+        <v>12.6</v>
+      </c>
+      <c r="J31" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="K31" s="4">
         <v>7.3</v>
       </c>
-      <c r="H31" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="I31" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="J31" s="4">
-        <v>12.6</v>
-      </c>
-      <c r="K31" s="4">
-        <v>8.6</v>
-      </c>
       <c r="L31" s="4">
-        <v>7.3</v>
-      </c>
-      <c r="M31" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="4">
-        <v>23.6</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C32" s="4">
-        <v>8.1999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="D32" s="4">
-        <v>5.9</v>
+        <v>14.2</v>
       </c>
       <c r="E32" s="4">
-        <v>14.2</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="F32" s="4">
-        <v>10.199999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="G32" s="4">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="H32" s="4">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="I32" s="4">
-        <v>7.4</v>
+        <v>12.4</v>
       </c>
       <c r="J32" s="4">
-        <v>12.4</v>
+        <v>8.5</v>
       </c>
       <c r="K32" s="4">
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="L32" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="M32" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="4">
-        <v>24.2</v>
+        <v>8.1</v>
       </c>
       <c r="C33" s="4">
-        <v>8.1</v>
+        <v>5.9</v>
       </c>
       <c r="D33" s="4">
-        <v>5.9</v>
+        <v>13.8</v>
       </c>
       <c r="E33" s="4">
-        <v>13.8</v>
+        <v>10.1</v>
       </c>
       <c r="F33" s="4">
-        <v>10.1</v>
+        <v>7.2</v>
       </c>
       <c r="G33" s="4">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="H33" s="4">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="I33" s="4">
-        <v>7.3</v>
+        <v>11.8</v>
       </c>
       <c r="J33" s="4">
-        <v>11.8</v>
+        <v>8.6</v>
       </c>
       <c r="K33" s="4">
-        <v>8.6</v>
+        <v>6.7</v>
       </c>
       <c r="L33" s="4">
-        <v>6.7</v>
-      </c>
-      <c r="M33" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="4">
-        <v>23.8</v>
+        <v>7.8</v>
       </c>
       <c r="C34" s="4">
-        <v>7.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D34" s="4">
-        <v>4.9000000000000004</v>
+        <v>13.6</v>
       </c>
       <c r="E34" s="4">
-        <v>13.6</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F34" s="4">
-        <v>9.6999999999999993</v>
+        <v>7</v>
       </c>
       <c r="G34" s="4">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="H34" s="4">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="I34" s="4">
-        <v>7.1</v>
+        <v>11.7</v>
       </c>
       <c r="J34" s="4">
-        <v>11.7</v>
+        <v>8.5</v>
       </c>
       <c r="K34" s="4">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="L34" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="M34" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="4">
-        <v>23.9</v>
+        <v>7.8</v>
       </c>
       <c r="C35" s="4">
-        <v>7.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D35" s="4">
-        <v>4.9000000000000004</v>
+        <v>14.1</v>
       </c>
       <c r="E35" s="4">
-        <v>14.1</v>
+        <v>10</v>
       </c>
       <c r="F35" s="4">
-        <v>10</v>
+        <v>6.9</v>
       </c>
       <c r="G35" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H35" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="I35" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K35" s="4">
         <v>6.9</v>
       </c>
-      <c r="H35" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="I35" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="J35" s="4">
-        <v>12.1</v>
-      </c>
-      <c r="K35" s="4">
-        <v>8.3000000000000007</v>
-      </c>
       <c r="L35" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="M35" s="4">
         <v>3.7</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="4">
-        <v>23.9</v>
+        <v>7.7</v>
       </c>
       <c r="C36" s="4">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="D36" s="4">
-        <v>6.3</v>
+        <v>13.3</v>
       </c>
       <c r="E36" s="4">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
       <c r="F36" s="4">
-        <v>9.9</v>
+        <v>6.8</v>
       </c>
       <c r="G36" s="4">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="H36" s="4">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="I36" s="4">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J36" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K36" s="4">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="L36" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="M36" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="4">
-        <v>24.1</v>
+        <v>7.9</v>
       </c>
       <c r="C37" s="4">
-        <v>7.9</v>
+        <v>6.6</v>
       </c>
       <c r="D37" s="4">
-        <v>6.6</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4">
-        <v>14</v>
+        <v>9.6</v>
       </c>
       <c r="F37" s="4">
-        <v>9.6</v>
+        <v>6.9</v>
       </c>
       <c r="G37" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="I37" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="J37" s="4">
+        <v>8</v>
+      </c>
+      <c r="K37" s="4">
         <v>6.9</v>
       </c>
-      <c r="H37" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="I37" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="J37" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="K37" s="4">
-        <v>8</v>
-      </c>
       <c r="L37" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="M37" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="4">
-        <v>23.7</v>
+        <v>8</v>
       </c>
       <c r="C38" s="4">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="D38" s="4">
-        <v>6.4</v>
+        <v>13.7</v>
       </c>
       <c r="E38" s="4">
-        <v>13.7</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F38" s="4">
-        <v>9.6999999999999993</v>
+        <v>7.1</v>
       </c>
       <c r="G38" s="4">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="H38" s="4">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="I38" s="4">
-        <v>7.2</v>
+        <v>12</v>
       </c>
       <c r="J38" s="4">
-        <v>12</v>
+        <v>8.1</v>
       </c>
       <c r="K38" s="4">
-        <v>8.1</v>
+        <v>6.9</v>
       </c>
       <c r="L38" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="M38" s="4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="4">
-        <v>25.2</v>
+        <v>7.7</v>
       </c>
       <c r="C39" s="4">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="D39" s="4">
-        <v>6</v>
+        <v>13.8</v>
       </c>
       <c r="E39" s="4">
-        <v>13.8</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="F39" s="4">
-        <v>9.6999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="G39" s="4">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="H39" s="4">
         <v>7</v>
       </c>
       <c r="I39" s="4">
-        <v>7</v>
+        <v>11.3</v>
       </c>
       <c r="J39" s="4">
-        <v>11.3</v>
+        <v>7.9</v>
       </c>
       <c r="K39" s="4">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="L39" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="M39" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="4">
-        <v>24</v>
+        <v>7.5</v>
       </c>
       <c r="C40" s="4">
-        <v>7.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D40" s="4">
-        <v>5.0999999999999996</v>
+        <v>13</v>
       </c>
       <c r="E40" s="4">
-        <v>13</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F40" s="4">
-        <v>9.3000000000000007</v>
+        <v>6.7</v>
       </c>
       <c r="G40" s="4">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="H40" s="4">
         <v>6.9</v>
       </c>
       <c r="I40" s="4">
-        <v>6.9</v>
+        <v>11.1</v>
       </c>
       <c r="J40" s="4">
-        <v>11.1</v>
+        <v>7.7</v>
       </c>
       <c r="K40" s="4">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="L40" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="M40" s="4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="4">
-        <v>24.4</v>
+        <v>7.6</v>
       </c>
       <c r="C41" s="4">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="D41" s="4">
-        <v>5.3</v>
+        <v>13.3</v>
       </c>
       <c r="E41" s="4">
-        <v>13.3</v>
+        <v>9</v>
       </c>
       <c r="F41" s="4">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="G41" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="H41" s="4">
         <v>6.7</v>
       </c>
-      <c r="H41" s="4">
-        <v>7.2</v>
-      </c>
       <c r="I41" s="4">
-        <v>6.7</v>
+        <v>11.6</v>
       </c>
       <c r="J41" s="4">
-        <v>11.6</v>
+        <v>7.5</v>
       </c>
       <c r="K41" s="4">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="L41" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="M41" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B42" s="4">
-        <v>24.4</v>
+        <v>7.5</v>
       </c>
       <c r="C42" s="4">
-        <v>7.5</v>
+        <v>4.5</v>
       </c>
       <c r="D42" s="4">
-        <v>4.5</v>
+        <v>13.4</v>
       </c>
       <c r="E42" s="4">
-        <v>13.4</v>
+        <v>9</v>
       </c>
       <c r="F42" s="4">
-        <v>9</v>
+        <v>6.7</v>
       </c>
       <c r="G42" s="4">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="H42" s="4">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="I42" s="4">
+        <v>11</v>
+      </c>
+      <c r="J42" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="K42" s="4">
         <v>6.5</v>
       </c>
-      <c r="J42" s="4">
-        <v>11</v>
-      </c>
-      <c r="K42" s="4">
-        <v>7.3</v>
-      </c>
       <c r="L42" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="M42" s="4">
         <v>3.9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="4">
-        <v>23.1</v>
+        <v>7.5</v>
       </c>
       <c r="C43" s="4">
-        <v>7.5</v>
+        <v>4.7</v>
       </c>
       <c r="D43" s="4">
-        <v>4.7</v>
+        <v>14.2</v>
       </c>
       <c r="E43" s="4">
-        <v>14.2</v>
+        <v>9.1</v>
       </c>
       <c r="F43" s="4">
-        <v>9.1</v>
+        <v>6.6</v>
       </c>
       <c r="G43" s="4">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H43" s="4">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I43" s="4">
-        <v>6.8</v>
+        <v>10.7</v>
       </c>
       <c r="J43" s="4">
-        <v>10.7</v>
+        <v>7.7</v>
       </c>
       <c r="K43" s="4">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="L43" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="M43" s="4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B44" s="4">
-        <v>23.3</v>
+        <v>7.3</v>
       </c>
       <c r="C44" s="4">
-        <v>7.3</v>
+        <v>5.3</v>
       </c>
       <c r="D44" s="4">
-        <v>5.3</v>
+        <v>12.6</v>
       </c>
       <c r="E44" s="4">
-        <v>12.6</v>
+        <v>9.4</v>
       </c>
       <c r="F44" s="4">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="G44" s="4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H44" s="4">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="I44" s="4">
-        <v>6.3</v>
+        <v>10.8</v>
       </c>
       <c r="J44" s="4">
-        <v>10.8</v>
+        <v>7.5</v>
       </c>
       <c r="K44" s="4">
-        <v>7.5</v>
+        <v>6.1</v>
       </c>
       <c r="L44" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="M44" s="4">
         <v>3.8</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B45" s="4">
-        <v>22.5</v>
+        <v>7.2</v>
       </c>
       <c r="C45" s="4">
-        <v>7.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D45" s="4">
-        <v>5.0999999999999996</v>
+        <v>12.8</v>
       </c>
       <c r="E45" s="4">
-        <v>12.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F45" s="4">
-        <v>9.1999999999999993</v>
+        <v>6.4</v>
       </c>
       <c r="G45" s="4">
-        <v>6.4</v>
+        <v>7.1</v>
       </c>
       <c r="H45" s="4">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="I45" s="4">
-        <v>6.2</v>
+        <v>11.1</v>
       </c>
       <c r="J45" s="4">
-        <v>11.1</v>
+        <v>7.4</v>
       </c>
       <c r="K45" s="4">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="L45" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="M45" s="4">
         <v>3.4</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="4">
-        <v>21.3</v>
+        <v>7.2</v>
       </c>
       <c r="C46" s="4">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="D46" s="4">
-        <v>5.4</v>
+        <v>13</v>
       </c>
       <c r="E46" s="4">
-        <v>13</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F46" s="4">
-        <v>8.8000000000000007</v>
+        <v>6.3</v>
       </c>
       <c r="G46" s="4">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="H46" s="4">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="I46" s="4">
-        <v>6.2</v>
+        <v>10.5</v>
       </c>
       <c r="J46" s="4">
-        <v>10.5</v>
+        <v>7.6</v>
       </c>
       <c r="K46" s="4">
-        <v>7.6</v>
+        <v>6.1</v>
       </c>
       <c r="L46" s="4">
-        <v>6.1</v>
-      </c>
-      <c r="M46" s="4">
         <v>3.7</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B47" s="4">
-        <v>22.2</v>
+        <v>7.2</v>
       </c>
       <c r="C47" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="D47" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="E47" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="F47" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="G47" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="H47" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="I47" s="4">
+        <v>10.9</v>
+      </c>
+      <c r="J47" s="4">
         <v>7.2</v>
       </c>
-      <c r="D47" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="E47" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="F47" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="G47" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="H47" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="I47" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="J47" s="4">
-        <v>10.9</v>
-      </c>
       <c r="K47" s="4">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L47" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="M47" s="4">
         <v>3.7</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B48" s="4">
-        <v>20.7</v>
+        <v>6.9</v>
       </c>
       <c r="C48" s="4">
-        <v>6.9</v>
+        <v>5.2</v>
       </c>
       <c r="D48" s="4">
-        <v>5.2</v>
+        <v>12.3</v>
       </c>
       <c r="E48" s="4">
-        <v>12.3</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="F48" s="4">
-        <v>8.6999999999999993</v>
+        <v>6.1</v>
       </c>
       <c r="G48" s="4">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="H48" s="4">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="I48" s="4">
-        <v>6.2</v>
+        <v>10.7</v>
       </c>
       <c r="J48" s="4">
-        <v>10.7</v>
+        <v>7.2</v>
       </c>
       <c r="K48" s="4">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="L48" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="M48" s="4">
         <v>3.4</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B49" s="4">
-        <v>20.399999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C49" s="4">
-        <v>6.7</v>
+        <v>4.3</v>
       </c>
       <c r="D49" s="4">
-        <v>4.3</v>
+        <v>11.9</v>
       </c>
       <c r="E49" s="4">
-        <v>11.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F49" s="4">
-        <v>8.3000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="G49" s="4">
-        <v>5.9</v>
+        <v>6.3</v>
       </c>
       <c r="H49" s="4">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="I49" s="4">
-        <v>6.1</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J49" s="4">
-        <v>9.8000000000000007</v>
+        <v>7</v>
       </c>
       <c r="K49" s="4">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="L49" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="M49" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="4">
-        <v>20.399999999999999</v>
+        <v>6.6</v>
       </c>
       <c r="C50" s="4">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="D50" s="4">
-        <v>4.7</v>
+        <v>12.1</v>
       </c>
       <c r="E50" s="4">
-        <v>12.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F50" s="4">
-        <v>8.3000000000000007</v>
+        <v>5.7</v>
       </c>
       <c r="G50" s="4">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="H50" s="4">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I50" s="4">
-        <v>5.8</v>
+        <v>9.4</v>
       </c>
       <c r="J50" s="4">
-        <v>9.4</v>
+        <v>6.5</v>
       </c>
       <c r="K50" s="4">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="L50" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="M50" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B51" s="4">
-        <v>21.4</v>
+        <v>6.7</v>
       </c>
       <c r="C51" s="4">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="D51" s="4">
+        <v>11.8</v>
+      </c>
+      <c r="E51" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F51" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="G51" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="H51" s="4">
         <v>5.9</v>
       </c>
-      <c r="E51" s="4">
-        <v>11.8</v>
-      </c>
-      <c r="F51" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="G51" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="H51" s="4">
-        <v>6.3</v>
-      </c>
       <c r="I51" s="4">
-        <v>5.9</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="J51" s="4">
-        <v>9.8000000000000007</v>
+        <v>6.4</v>
       </c>
       <c r="K51" s="4">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="L51" s="4">
-        <v>6</v>
-      </c>
-      <c r="M51" s="4">
         <v>3.4</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B52" s="4">
-        <v>20.8</v>
+        <v>6.7</v>
       </c>
       <c r="C52" s="4">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="D52" s="4">
-        <v>5.5</v>
+        <v>12.1</v>
       </c>
       <c r="E52" s="4">
-        <v>12.1</v>
+        <v>7.9</v>
       </c>
       <c r="F52" s="4">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="G52" s="4">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H52" s="4">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I52" s="4">
-        <v>6.2</v>
+        <v>9.4</v>
       </c>
       <c r="J52" s="4">
-        <v>9.4</v>
+        <v>6.3</v>
       </c>
       <c r="K52" s="4">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="L52" s="4">
-        <v>6</v>
-      </c>
-      <c r="M52" s="4">
         <v>3.4</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B53" s="4">
-        <v>19.399999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="C53" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="D53" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="E53" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F53" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="G53" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="H53" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I53" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J53" s="4">
         <v>6.2</v>
       </c>
-      <c r="D53" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="E53" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="F53" s="4">
-        <v>7.2</v>
-      </c>
-      <c r="G53" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="H53" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="I53" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="J53" s="4">
-        <v>8.6999999999999993</v>
-      </c>
       <c r="K53" s="4">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="L53" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="M53" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B54" s="4">
-        <v>19.3</v>
+        <v>6.3</v>
       </c>
       <c r="C54" s="4">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="D54" s="4">
-        <v>5.7</v>
+        <v>11.4</v>
       </c>
       <c r="E54" s="4">
-        <v>11.4</v>
+        <v>7.7</v>
       </c>
       <c r="F54" s="4">
-        <v>7.7</v>
+        <v>5.4</v>
       </c>
       <c r="G54" s="4">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="H54" s="4">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="I54" s="4">
-        <v>5.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J54" s="4">
-        <v>9.1999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="K54" s="4">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="L54" s="4">
-        <v>5.5</v>
-      </c>
-      <c r="M54" s="4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B55" s="4">
-        <v>20.399999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C55" s="4">
-        <v>6.1</v>
+        <v>4.7</v>
       </c>
       <c r="D55" s="4">
-        <v>4.7</v>
+        <v>11</v>
       </c>
       <c r="E55" s="4">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="F55" s="4">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="G55" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H55" s="4">
         <v>5.3</v>
       </c>
-      <c r="H55" s="4">
-        <v>5.7</v>
-      </c>
       <c r="I55" s="4">
-        <v>5.3</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="J55" s="4">
-        <v>9.1999999999999993</v>
+        <v>5.9</v>
       </c>
       <c r="K55" s="4">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="L55" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="M55" s="4">
         <v>3.3</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="4">
-        <v>20.3</v>
+        <v>6.2</v>
       </c>
       <c r="C56" s="4">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="D56" s="4">
-        <v>4.2</v>
+        <v>11.6</v>
       </c>
       <c r="E56" s="4">
-        <v>11.6</v>
+        <v>7.7</v>
       </c>
       <c r="F56" s="4">
-        <v>7.7</v>
+        <v>5.3</v>
       </c>
       <c r="G56" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H56" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I56" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="J56" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="K56" s="4">
         <v>5.3</v>
       </c>
-      <c r="H56" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="I56" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="J56" s="4">
-        <v>9.5</v>
-      </c>
-      <c r="K56" s="4">
-        <v>6.1</v>
-      </c>
       <c r="L56" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="M56" s="4">
         <v>3.1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B57" s="4">
-        <v>19.399999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="C57" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D57" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="F57" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="G57" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="H57" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I57" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J57" s="4">
         <v>6.1</v>
       </c>
-      <c r="D57" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="E57" s="4">
-        <v>11.4</v>
-      </c>
-      <c r="F57" s="4">
-        <v>7.4</v>
-      </c>
-      <c r="G57" s="4">
+      <c r="K57" s="4">
         <v>5.3</v>
       </c>
-      <c r="H57" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="I57" s="4">
-        <v>5.6</v>
-      </c>
-      <c r="J57" s="4">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="K57" s="4">
-        <v>6.1</v>
-      </c>
       <c r="L57" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="M57" s="4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B58" s="4">
-        <v>20.100000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="C58" s="4">
-        <v>5.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D58" s="4">
-        <v>4.4000000000000004</v>
+        <v>11</v>
       </c>
       <c r="E58" s="4">
-        <v>11</v>
+        <v>6.8</v>
       </c>
       <c r="F58" s="4">
-        <v>6.8</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G58" s="4">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
       <c r="H58" s="4">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="I58" s="4">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="J58" s="4">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="K58" s="4">
         <v>5.4</v>
       </c>
       <c r="L58" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="M58" s="4">
         <v>2.9</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B59" s="4">
-        <v>18.7</v>
+        <v>5.7</v>
       </c>
       <c r="C59" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D59" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="E59" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G59" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H59" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I59" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="J59" s="4">
         <v>5.7</v>
       </c>
-      <c r="D59" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E59" s="4">
-        <v>10.6</v>
-      </c>
-      <c r="F59" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="G59" s="4">
+      <c r="K59" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H59" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I59" s="4">
-        <v>5.4</v>
-      </c>
-      <c r="J59" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="K59" s="4">
-        <v>5.7</v>
-      </c>
       <c r="L59" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M59" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>17.2</v>
+        <v>5.8</v>
       </c>
       <c r="C60" s="4">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="D60" s="4">
-        <v>4.8</v>
+        <v>10.9</v>
       </c>
       <c r="E60" s="4">
-        <v>10.9</v>
+        <v>6.6</v>
       </c>
       <c r="F60" s="4">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="G60" s="4">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="H60" s="4">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="I60" s="4">
-        <v>5.3</v>
+        <v>8.6</v>
       </c>
       <c r="J60" s="4">
-        <v>8.6</v>
+        <v>5.7</v>
       </c>
       <c r="K60" s="4">
-        <v>5.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="L60" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M60" s="4">
         <v>3.2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="4">
-        <v>16.899999999999999</v>
+        <v>5.6</v>
       </c>
       <c r="C61" s="4">
-        <v>5.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D61" s="4">
-        <v>4.4000000000000004</v>
+        <v>10.6</v>
       </c>
       <c r="E61" s="4">
-        <v>10.6</v>
+        <v>6.4</v>
       </c>
       <c r="F61" s="4">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="G61" s="4">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H61" s="4">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I61" s="4">
-        <v>5.0999999999999996</v>
+        <v>8.6</v>
       </c>
       <c r="J61" s="4">
-        <v>8.6</v>
+        <v>5.3</v>
       </c>
       <c r="K61" s="4">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L61" s="4">
-        <v>5</v>
-      </c>
-      <c r="M61" s="4">
         <v>2.8</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B62" s="4">
-        <v>18.5</v>
+        <v>5.7</v>
       </c>
       <c r="C62" s="4">
-        <v>5.7</v>
+        <v>4</v>
       </c>
       <c r="D62" s="4">
-        <v>4</v>
+        <v>10.3</v>
       </c>
       <c r="E62" s="4">
-        <v>10.3</v>
+        <v>6.7</v>
       </c>
       <c r="F62" s="4">
-        <v>6.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G62" s="4">
-        <v>4.9000000000000004</v>
+        <v>5.3</v>
       </c>
       <c r="H62" s="4">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="I62" s="4">
-        <v>5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J62" s="4">
-        <v>8.3000000000000007</v>
+        <v>5.4</v>
       </c>
       <c r="K62" s="4">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="L62" s="4">
-        <v>5.2</v>
-      </c>
-      <c r="M62" s="4">
         <v>2.8</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B63" s="4">
-        <v>16.899999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="C63" s="4">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="4">
-        <v>4</v>
+        <v>10.1</v>
       </c>
       <c r="E63" s="4">
-        <v>10.1</v>
+        <v>6.8</v>
       </c>
       <c r="F63" s="4">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="G63" s="4">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H63" s="4">
-        <v>5.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I63" s="4">
-        <v>4.9000000000000004</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J63" s="4">
-        <v>8.1999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="K63" s="4">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L63" s="4">
-        <v>5</v>
-      </c>
-      <c r="M63" s="4">
         <v>2.7</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B64" s="4">
-        <v>17.5</v>
+        <v>5.4</v>
       </c>
       <c r="C64" s="4">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="D64" s="4">
-        <v>3.2</v>
+        <v>9.9</v>
       </c>
       <c r="E64" s="4">
-        <v>9.9</v>
+        <v>6.8</v>
       </c>
       <c r="F64" s="4">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="G64" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H64" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I64" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="J64" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="K64" s="4">
         <v>4.8</v>
       </c>
-      <c r="H64" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="I64" s="4">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J64" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="K64" s="4">
-        <v>5.3</v>
-      </c>
       <c r="L64" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="M64" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B65" s="4">
-        <v>17.2</v>
+        <v>5.4</v>
       </c>
       <c r="C65" s="4">
-        <v>5.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D65" s="4">
-        <v>4.4000000000000004</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E65" s="4">
-        <v>9.6999999999999993</v>
+        <v>6.8</v>
       </c>
       <c r="F65" s="4">
-        <v>6.8</v>
+        <v>4.7</v>
       </c>
       <c r="G65" s="4">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H65" s="4">
         <v>5</v>
       </c>
       <c r="I65" s="4">
-        <v>5</v>
+        <v>8.4</v>
       </c>
       <c r="J65" s="4">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="K65" s="4">
-        <v>5.5</v>
+        <v>4.7</v>
       </c>
       <c r="L65" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="M65" s="4">
         <v>2.7</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B66" s="4">
-        <v>17.8</v>
+        <v>5.6</v>
       </c>
       <c r="C66" s="4">
-        <v>5.6</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D66" s="4">
-        <v>4.0999999999999996</v>
+        <v>10.3</v>
       </c>
       <c r="E66" s="4">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="F66" s="4">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="G66" s="4">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H66" s="4">
-        <v>5.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="I66" s="4">
-        <v>5.0999999999999996</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="J66" s="4">
-        <v>8.6999999999999993</v>
+        <v>5.8</v>
       </c>
       <c r="K66" s="4">
-        <v>5.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="L66" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M66" s="4">
         <v>2.8</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="4">
-        <v>18</v>
+        <v>5.3</v>
       </c>
       <c r="C67" s="4">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="D67" s="4">
-        <v>3.9</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E67" s="4">
-        <v>9.6999999999999993</v>
+        <v>6.7</v>
       </c>
       <c r="F67" s="4">
-        <v>6.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G67" s="4">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="H67" s="4">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I67" s="4">
-        <v>4.7</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="J67" s="4">
-        <v>8.1999999999999993</v>
+        <v>5.4</v>
       </c>
       <c r="K67" s="4">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L67" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M67" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B68" s="4">
-        <v>16.399999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="C68" s="4">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="D68" s="4">
-        <v>3.9</v>
+        <v>9.1</v>
       </c>
       <c r="E68" s="4">
-        <v>9.1</v>
+        <v>6.9</v>
       </c>
       <c r="F68" s="4">
-        <v>6.9</v>
+        <v>4.5</v>
       </c>
       <c r="G68" s="4">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="H68" s="4">
         <v>4.8</v>
       </c>
       <c r="I68" s="4">
-        <v>4.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="J68" s="4">
-        <v>8.3000000000000007</v>
+        <v>5.5</v>
       </c>
       <c r="K68" s="4">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L68" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="M68" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B69" s="4">
-        <v>16.899999999999999</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C69" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="D69" s="4">
-        <v>3.4</v>
+        <v>9.4</v>
       </c>
       <c r="E69" s="4">
-        <v>9.4</v>
+        <v>6.6</v>
       </c>
       <c r="F69" s="4">
-        <v>6.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G69" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="H69" s="4">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I69" s="4">
-        <v>4.5999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="J69" s="4">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="K69" s="4">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L69" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="M69" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B70" s="4">
-        <v>16.5</v>
+        <v>5</v>
       </c>
       <c r="C70" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D70" s="4">
-        <v>3.5</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="E70" s="4">
-        <v>9.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="F70" s="4">
-        <v>6.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G70" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="H70" s="4">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I70" s="4">
-        <v>4.5999999999999996</v>
+        <v>7.9</v>
       </c>
       <c r="J70" s="4">
-        <v>7.9</v>
+        <v>5.3</v>
       </c>
       <c r="K70" s="4">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="L70" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="M70" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B71" s="4">
-        <v>15.9</v>
+        <v>5</v>
       </c>
       <c r="C71" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="D71" s="4">
-        <v>3.5</v>
+        <v>9</v>
       </c>
       <c r="E71" s="4">
-        <v>9</v>
+        <v>6.3</v>
       </c>
       <c r="F71" s="4">
-        <v>6.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G71" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="H71" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I71" s="4">
+        <v>7.6</v>
+      </c>
+      <c r="J71" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="K71" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H71" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="I71" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J71" s="4">
-        <v>7.6</v>
-      </c>
-      <c r="K71" s="4">
-        <v>5.2</v>
-      </c>
       <c r="L71" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M71" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B72" s="4">
-        <v>15.3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="C72" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="D72" s="4">
-        <v>3.9</v>
+        <v>9.4</v>
       </c>
       <c r="E72" s="4">
-        <v>9.4</v>
+        <v>6.4</v>
       </c>
       <c r="F72" s="4">
-        <v>6.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G72" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="H72" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I72" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="J72" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="K72" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H72" s="4">
-        <v>4.8</v>
-      </c>
-      <c r="I72" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J72" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="K72" s="4">
-        <v>5.4</v>
-      </c>
       <c r="L72" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M72" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B73" s="4">
-        <v>16.2</v>
+        <v>5</v>
       </c>
       <c r="C73" s="4">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D73" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="E73" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="F73" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G73" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H73" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I73" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="J73" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="K73" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E73" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="F73" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="G73" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H73" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I73" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J73" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="K73" s="4">
-        <v>5.6</v>
-      </c>
       <c r="L73" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M73" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B74" s="4">
-        <v>15.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C74" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="D74" s="4">
-        <v>3.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E74" s="4">
-        <v>8.6999999999999993</v>
+        <v>5.8</v>
       </c>
       <c r="F74" s="4">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="G74" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H74" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="I74" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="J74" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="K74" s="4">
         <v>4.2</v>
       </c>
-      <c r="H74" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I74" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="J74" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="K74" s="4">
-        <v>5.2</v>
-      </c>
       <c r="L74" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M74" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B75" s="4">
-        <v>15.2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C75" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="D75" s="4">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="E75" s="4">
-        <v>8.5</v>
+        <v>5.4</v>
       </c>
       <c r="F75" s="4">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="G75" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H75" s="4">
         <v>4.5</v>
       </c>
       <c r="I75" s="4">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="J75" s="4">
-        <v>7</v>
+        <v>5.2</v>
       </c>
       <c r="K75" s="4">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="L75" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M75" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B76" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C76" s="4">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="D76" s="4">
-        <v>3.9</v>
+        <v>8.9</v>
       </c>
       <c r="E76" s="4">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="F76" s="4">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="G76" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H76" s="4">
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I76" s="4">
-        <v>4.5999999999999996</v>
+        <v>7.3</v>
       </c>
       <c r="J76" s="4">
-        <v>7.3</v>
+        <v>5.3</v>
       </c>
       <c r="K76" s="4">
-        <v>5.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="L76" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M76" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B77" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C77" s="4">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="D77" s="4">
-        <v>3.8</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E77" s="4">
-        <v>8.8000000000000007</v>
+        <v>6.1</v>
       </c>
       <c r="F77" s="4">
-        <v>6.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G77" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H77" s="4">
         <v>4.5999999999999996</v>
       </c>
       <c r="I77" s="4">
-        <v>4.5999999999999996</v>
+        <v>7.6</v>
       </c>
       <c r="J77" s="4">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="K77" s="4">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="L77" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M77" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B78" s="4">
-        <v>16</v>
+        <v>4.8</v>
       </c>
       <c r="C78" s="4">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="D78" s="4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E78" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="F78" s="4">
         <v>4.2</v>
       </c>
-      <c r="E78" s="4">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="F78" s="4">
-        <v>5.6</v>
-      </c>
       <c r="G78" s="4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H78" s="4">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="I78" s="4">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="J78" s="4">
-        <v>7.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K78" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="L78" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="M78" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B79" s="4">
-        <v>16.100000000000001</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C79" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="D79" s="4">
-        <v>3.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E79" s="4">
-        <v>8.8000000000000007</v>
+        <v>5.9</v>
       </c>
       <c r="F79" s="4">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="G79" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H79" s="4">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I79" s="4">
-        <v>4.4000000000000004</v>
+        <v>7.6</v>
       </c>
       <c r="J79" s="4">
-        <v>7.6</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K79" s="4">
-        <v>5.0999999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="L79" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M79" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B80" s="4">
-        <v>15.8</v>
+        <v>4.8</v>
       </c>
       <c r="C80" s="4">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="D80" s="4">
-        <v>3.8</v>
+        <v>8.4</v>
       </c>
       <c r="E80" s="4">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="F80" s="4">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="G80" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H80" s="4">
         <v>4.2</v>
       </c>
-      <c r="H80" s="4">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="I80" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J80" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K80" s="4">
         <v>4.2</v>
       </c>
-      <c r="J80" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="K80" s="4">
-        <v>5.0999999999999996</v>
-      </c>
       <c r="L80" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M80" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B81" s="4">
-        <v>15.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C81" s="4">
-        <v>4.9000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D81" s="4">
-        <v>4.0999999999999996</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="F81" s="4">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="G81" s="4">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H81" s="4">
-        <v>4.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I81" s="4">
-        <v>4.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="J81" s="4">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="K81" s="4">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L81" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M81" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="4">
-        <v>16.2</v>
+        <v>5</v>
       </c>
       <c r="C82" s="4">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="D82" s="4">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="E82" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="F82" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G82" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="H82" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I82" s="4">
         <v>8.5</v>
       </c>
-      <c r="F82" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="G82" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H82" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="I82" s="4">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="J82" s="4">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="K82" s="4">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="L82" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="M82" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="B83" s="4">
-        <v>15.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="C83" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="D83" s="4">
-        <v>3.4</v>
+        <v>8.4</v>
       </c>
       <c r="E83" s="4">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="F83" s="4">
-        <v>5.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G83" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H83" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H83" s="4">
-        <v>4.5999999999999996</v>
-      </c>
       <c r="I83" s="4">
-        <v>4.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="J83" s="4">
-        <v>7.4</v>
+        <v>5.4</v>
       </c>
       <c r="K83" s="4">
-        <v>5.4</v>
+        <v>3.9</v>
       </c>
       <c r="L83" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="M83" s="4">
         <v>2.6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B84" s="4">
-        <v>14.9</v>
+        <v>4.7</v>
       </c>
       <c r="C84" s="4">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="D84" s="4">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="E84" s="4">
-        <v>8.1</v>
+        <v>5.8</v>
       </c>
       <c r="F84" s="4">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="G84" s="4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H84" s="4">
         <v>4.3</v>
       </c>
       <c r="I84" s="4">
-        <v>4.3</v>
+        <v>7.8</v>
       </c>
       <c r="J84" s="4">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="K84" s="4">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="L84" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="M84" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B85" s="4">
-        <v>14.5</v>
+        <v>4.7</v>
       </c>
       <c r="C85" s="4">
-        <v>4.7</v>
+        <v>2.7</v>
       </c>
       <c r="D85" s="4">
-        <v>2.7</v>
+        <v>7.9</v>
       </c>
       <c r="E85" s="4">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="F85" s="4">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="G85" s="4">
-        <v>4.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H85" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="I85" s="4">
-        <v>4.3</v>
+        <v>7.5</v>
       </c>
       <c r="J85" s="4">
-        <v>7.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K85" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="L85" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="M85" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>84</v>
       </c>
       <c r="B86" s="4">
-        <v>14.6</v>
+        <v>4.7</v>
       </c>
       <c r="C86" s="4">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="D86" s="4">
-        <v>3.7</v>
+        <v>7.5</v>
       </c>
       <c r="E86" s="4">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="F86" s="4">
-        <v>5.8</v>
+        <v>4.2</v>
       </c>
       <c r="G86" s="4">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H86" s="4">
-        <v>4.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I86" s="4">
-        <v>4.4000000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="J86" s="4">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="K86" s="4">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="L86" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="M86" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B87" s="4">
-        <v>14.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C87" s="4">
-        <v>4.5999999999999996</v>
+        <v>3.4</v>
       </c>
       <c r="D87" s="4">
-        <v>3.4</v>
+        <v>7.9</v>
       </c>
       <c r="E87" s="4">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="F87" s="4">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="G87" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="H87" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="I87" s="4">
+        <v>7.7</v>
+      </c>
+      <c r="J87" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K87" s="4">
         <v>4</v>
       </c>
-      <c r="H87" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="I87" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="J87" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="K87" s="4">
-        <v>4.9000000000000004</v>
-      </c>
       <c r="L87" s="4">
-        <v>4</v>
-      </c>
-      <c r="M87" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>86</v>
       </c>
       <c r="B88" s="4">
-        <v>13.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C88" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="D88" s="4">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="E88" s="4">
-        <v>7.9</v>
+        <v>5</v>
       </c>
       <c r="F88" s="4">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="G88" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="H88" s="4">
         <v>3.9</v>
       </c>
-      <c r="H88" s="4">
-        <v>4.2</v>
-      </c>
       <c r="I88" s="4">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="J88" s="4">
-        <v>6.6</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K88" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="L88" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="M88" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B89" s="4">
-        <v>14.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C89" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="D89" s="4">
-        <v>3.3</v>
+        <v>7.9</v>
       </c>
       <c r="E89" s="4">
-        <v>7.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F89" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="G89" s="4">
         <v>3.9</v>
       </c>
       <c r="H89" s="4">
-        <v>3.9</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I89" s="4">
-        <v>4.0999999999999996</v>
+        <v>6.4</v>
       </c>
       <c r="J89" s="4">
-        <v>6.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K89" s="4">
-        <v>4.5999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="L89" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="M89" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>88</v>
       </c>
       <c r="B90" s="4">
-        <v>14.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C90" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="D90" s="4">
-        <v>3.7</v>
+        <v>7.7</v>
       </c>
       <c r="E90" s="4">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="F90" s="4">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="G90" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H90" s="4">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I90" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="J90" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="K90" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J90" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="K90" s="4">
-        <v>4.8</v>
-      </c>
       <c r="L90" s="4">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="M90" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B91" s="4">
-        <v>13.4</v>
+        <v>4.3</v>
       </c>
       <c r="C91" s="4">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="D91" s="4">
-        <v>3.6</v>
+        <v>7.1</v>
       </c>
       <c r="E91" s="4">
-        <v>7.1</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F91" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.8</v>
       </c>
       <c r="G91" s="4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H91" s="4">
         <v>4</v>
       </c>
       <c r="I91" s="4">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="J91" s="4">
-        <v>6.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K91" s="4">
-        <v>4.5999999999999996</v>
+        <v>3.8</v>
       </c>
       <c r="L91" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="M91" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B92" s="4">
-        <v>13.2</v>
+        <v>4.3</v>
       </c>
       <c r="C92" s="4">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="D92" s="4">
-        <v>3.8</v>
+        <v>7.4</v>
       </c>
       <c r="E92" s="4">
-        <v>7.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F92" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="G92" s="4">
+        <v>4</v>
+      </c>
+      <c r="H92" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="I92" s="4">
+        <v>7.1</v>
+      </c>
+      <c r="J92" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="K92" s="4">
         <v>3.7</v>
       </c>
-      <c r="H92" s="4">
-        <v>4</v>
-      </c>
-      <c r="I92" s="4">
-        <v>3.9</v>
-      </c>
-      <c r="J92" s="4">
-        <v>7.1</v>
-      </c>
-      <c r="K92" s="4">
-        <v>4.5</v>
-      </c>
       <c r="L92" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="M92" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>91</v>
       </c>
       <c r="B93" s="4">
-        <v>13.9</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C93" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="D93" s="4">
-        <v>3.9</v>
+        <v>7.7</v>
       </c>
       <c r="E93" s="4">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
       <c r="F93" s="4">
-        <v>5.2</v>
+        <v>3.8</v>
       </c>
       <c r="G93" s="4">
-        <v>3.8</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="H93" s="4">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="I93" s="4">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="J93" s="4">
-        <v>6.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="K93" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="L93" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="M93" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>92</v>
       </c>
       <c r="B94" s="4">
-        <v>13.1</v>
+        <v>4.2</v>
       </c>
       <c r="C94" s="4">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D94" s="4">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="E94" s="4">
-        <v>7.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F94" s="4">
-        <v>5.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="G94" s="4">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H94" s="4">
         <v>3.9</v>
       </c>
       <c r="I94" s="4">
-        <v>3.9</v>
+        <v>6.7</v>
       </c>
       <c r="J94" s="4">
-        <v>6.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K94" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L94" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="M94" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B95" s="4">
-        <v>14</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C95" s="4">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="D95" s="4">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="E95" s="4">
-        <v>7.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F95" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="G95" s="4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H95" s="4">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I95" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="J95" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="K95" s="4">
         <v>3.7</v>
       </c>
-      <c r="J95" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="K95" s="4">
-        <v>4.2</v>
-      </c>
       <c r="L95" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="M95" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B96" s="4">
-        <v>16.100000000000001</v>
+        <v>4.2</v>
       </c>
       <c r="C96" s="4">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="D96" s="4">
-        <v>3</v>
+        <v>7.4</v>
       </c>
       <c r="E96" s="4">
-        <v>7.4</v>
+        <v>4.8</v>
       </c>
       <c r="F96" s="4">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="G96" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="H96" s="4">
         <v>3.7</v>
       </c>
-      <c r="H96" s="4">
-        <v>3.8</v>
-      </c>
       <c r="I96" s="4">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="J96" s="4">
-        <v>5.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K96" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.6</v>
       </c>
       <c r="L96" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="M96" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B97" s="4">
-        <v>13.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C97" s="4">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="D97" s="4">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="E97" s="4">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="F97" s="4">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="G97" s="4">
         <v>3.7</v>
@@ -4776,736 +4485,682 @@
         <v>3.7</v>
       </c>
       <c r="I97" s="4">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="J97" s="4">
-        <v>6.2</v>
+        <v>4.2</v>
       </c>
       <c r="K97" s="4">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="L97" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="M97" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B98" s="4">
-        <v>13.7</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C98" s="4">
-        <v>4.0999999999999996</v>
+        <v>3</v>
       </c>
       <c r="D98" s="4">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="E98" s="4">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="F98" s="4">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G98" s="4">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H98" s="4">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I98" s="4">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
       <c r="J98" s="4">
-        <v>5.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K98" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.4</v>
       </c>
       <c r="L98" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="M98" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="4">
-        <v>14</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="C99" s="4">
-        <v>4.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="D99" s="4">
-        <v>2.9</v>
+        <v>6.7</v>
       </c>
       <c r="E99" s="4">
-        <v>6.7</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F99" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="G99" s="4">
         <v>3.7</v>
       </c>
       <c r="H99" s="4">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I99" s="4">
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="J99" s="4">
-        <v>5.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K99" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="L99" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="M99" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B100" s="4">
-        <v>13.4</v>
+        <v>4</v>
       </c>
       <c r="C100" s="4">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D100" s="4">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="E100" s="4">
-        <v>6.8</v>
+        <v>5</v>
       </c>
       <c r="F100" s="4">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="G100" s="4">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H100" s="4">
         <v>3.7</v>
       </c>
       <c r="I100" s="4">
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="J100" s="4">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="K100" s="4">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L100" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="M100" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B101" s="4">
-        <v>12.8</v>
+        <v>4</v>
       </c>
       <c r="C101" s="4">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="D101" s="4">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="E101" s="4">
-        <v>6.4</v>
+        <v>4.8</v>
       </c>
       <c r="F101" s="4">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="G101" s="4">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H101" s="4">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I101" s="4">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="J101" s="4">
-        <v>5.8</v>
+        <v>4.3</v>
       </c>
       <c r="K101" s="4">
-        <v>4.3</v>
+        <v>3.4</v>
       </c>
       <c r="L101" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="M101" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B102" s="4">
-        <v>12.8</v>
+        <v>3.8</v>
       </c>
       <c r="C102" s="4">
-        <v>3.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D102" s="4">
-        <v>2.2000000000000002</v>
+        <v>5.9</v>
       </c>
       <c r="E102" s="4">
-        <v>5.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F102" s="4">
-        <v>4.9000000000000004</v>
+        <v>3.5</v>
       </c>
       <c r="G102" s="4">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H102" s="4">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I102" s="4">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="J102" s="4">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="K102" s="4">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="L102" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="M102" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B103" s="4">
-        <v>12.6</v>
+        <v>4</v>
       </c>
       <c r="C103" s="4">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D103" s="4">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="E103" s="4">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="F103" s="4">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G103" s="4">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H103" s="4">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I103" s="4">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="J103" s="4">
-        <v>5.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K103" s="4">
-        <v>4.0999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="L103" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="M103" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B104" s="4">
-        <v>13</v>
+        <v>3.8</v>
       </c>
       <c r="C104" s="4">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D104" s="4">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="E104" s="4">
-        <v>6.6</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F104" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.3</v>
       </c>
       <c r="G104" s="4">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H104" s="4">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I104" s="4">
-        <v>3.6</v>
+        <v>5.2</v>
       </c>
       <c r="J104" s="4">
-        <v>5.2</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K104" s="4">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="L104" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="M104" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B105" s="4">
-        <v>12.8</v>
+        <v>3.8</v>
       </c>
       <c r="C105" s="4">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D105" s="4">
-        <v>3</v>
+        <v>6.3</v>
       </c>
       <c r="E105" s="4">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="F105" s="4">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="G105" s="4">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H105" s="4">
         <v>3.5</v>
       </c>
       <c r="I105" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="J105" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K105" s="4">
         <v>3.5</v>
       </c>
-      <c r="J105" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="K105" s="4">
-        <v>3.9</v>
-      </c>
       <c r="L105" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="M105" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B106" s="4">
-        <v>12.7</v>
+        <v>3.7</v>
       </c>
       <c r="C106" s="4">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D106" s="4">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="E106" s="4">
-        <v>6.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F106" s="4">
-        <v>4.5999999999999996</v>
+        <v>3.3</v>
       </c>
       <c r="G106" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="H106" s="4">
         <v>3.3</v>
       </c>
-      <c r="H106" s="4">
-        <v>3.4</v>
-      </c>
       <c r="I106" s="4">
-        <v>3.3</v>
+        <v>5.7</v>
       </c>
       <c r="J106" s="4">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="K106" s="4">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="L106" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="M106" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B107" s="4">
-        <v>12.2</v>
+        <v>3.8</v>
       </c>
       <c r="C107" s="4">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D107" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="E107" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F107" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G107" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H107" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I107" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="J107" s="4">
+        <v>4</v>
+      </c>
+      <c r="K107" s="4">
         <v>3.1</v>
       </c>
-      <c r="E107" s="4">
-        <v>6.3</v>
-      </c>
-      <c r="F107" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G107" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="H107" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I107" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="J107" s="4">
-        <v>5.9</v>
-      </c>
-      <c r="K107" s="4">
-        <v>4</v>
-      </c>
       <c r="L107" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="M107" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B108" s="4">
-        <v>12.4</v>
+        <v>3.7</v>
       </c>
       <c r="C108" s="4">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D108" s="4">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="E108" s="4">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="F108" s="4">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="G108" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="H108" s="4">
         <v>3.4</v>
       </c>
-      <c r="H108" s="4">
-        <v>3.3</v>
-      </c>
       <c r="I108" s="4">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="J108" s="4">
-        <v>5.6</v>
+        <v>3.5</v>
       </c>
       <c r="K108" s="4">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L108" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="M108" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B109" s="4">
-        <v>12.6</v>
+        <v>3.9</v>
       </c>
       <c r="C109" s="4">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D109" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="E109" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F109" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="G109" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="H109" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I109" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="J109" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="K109" s="4">
         <v>3.3</v>
       </c>
-      <c r="E109" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="F109" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="G109" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="H109" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="I109" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="J109" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="K109" s="4">
-        <v>3.8</v>
-      </c>
       <c r="L109" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="M109" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B110" s="4">
-        <v>12.9</v>
+        <v>4</v>
       </c>
       <c r="C110" s="4">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="D110" s="4">
-        <v>3.1</v>
+        <v>6.8</v>
       </c>
       <c r="E110" s="4">
-        <v>6.8</v>
+        <v>4.8</v>
       </c>
       <c r="F110" s="4">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="G110" s="4">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H110" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="I110" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="J110" s="4">
         <v>3.7</v>
       </c>
-      <c r="I110" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="J110" s="4">
-        <v>5.7</v>
-      </c>
       <c r="K110" s="4">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L110" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="M110" s="4">
         <v>2.4</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B111" s="4">
-        <v>13.3</v>
+        <v>3.8</v>
       </c>
       <c r="C111" s="4">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D111" s="4">
+        <v>6.9</v>
+      </c>
+      <c r="E111" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="F111" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G111" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="H111" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I111" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="J111" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="K111" s="4">
         <v>3.1</v>
       </c>
-      <c r="E111" s="4">
-        <v>6.9</v>
-      </c>
-      <c r="F111" s="4">
-        <v>4.3</v>
-      </c>
-      <c r="G111" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="H111" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="I111" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="J111" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="K111" s="4">
-        <v>3.7</v>
-      </c>
       <c r="L111" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="M111" s="4">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="4">
-        <v>12.7</v>
+        <v>3.8</v>
       </c>
       <c r="C112" s="4">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="D112" s="4">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="E112" s="4">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="F112" s="4">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="G112" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="H112" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I112" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="J112" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="K112" s="4">
         <v>3.4</v>
       </c>
-      <c r="H112" s="4">
-        <v>3.6</v>
-      </c>
-      <c r="I112" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="J112" s="4">
-        <v>5.8</v>
-      </c>
-      <c r="K112" s="4">
-        <v>3.7</v>
-      </c>
       <c r="L112" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="M112" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B113" s="4">
-        <v>12.9</v>
+        <v>3.6</v>
       </c>
       <c r="C113" s="4">
-        <v>3.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D113" s="4">
-        <v>2.2000000000000002</v>
+        <v>6.6</v>
       </c>
       <c r="E113" s="4">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="F113" s="4">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="G113" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="H113" s="4">
         <v>3.1</v>
       </c>
-      <c r="H113" s="4">
+      <c r="I113" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="J113" s="4">
         <v>3.4</v>
       </c>
-      <c r="I113" s="4">
+      <c r="K113" s="4">
         <v>3.1</v>
       </c>
-      <c r="J113" s="4">
-        <v>5.3</v>
-      </c>
-      <c r="K113" s="4">
-        <v>3.4</v>
-      </c>
       <c r="L113" s="4">
-        <v>3.1</v>
-      </c>
-      <c r="M113" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B114" s="4">
-        <v>12.6</v>
+        <v>3.6</v>
       </c>
       <c r="C114" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D114" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="E114" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="F114" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="G114" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="H114" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I114" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="J114" s="4">
         <v>3.6</v>
       </c>
-      <c r="D114" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="E114" s="4">
-        <v>6.2</v>
-      </c>
-      <c r="F114" s="4">
-        <v>4.2</v>
-      </c>
-      <c r="G114" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="H114" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="I114" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="J114" s="4">
-        <v>5.4</v>
-      </c>
       <c r="K114" s="4">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="L114" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="M114" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B115" s="4">
-        <v>12.7</v>
+        <v>3.7</v>
       </c>
       <c r="C115" s="4">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="D115" s="4">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="E115" s="4">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="F115" s="4">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="G115" s="4">
         <v>3.3</v>
@@ -5514,39 +5169,36 @@
         <v>3.3</v>
       </c>
       <c r="I115" s="4">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="J115" s="4">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="K115" s="4">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="L115" s="4">
-        <v>3</v>
-      </c>
-      <c r="M115" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>114</v>
       </c>
       <c r="B116" s="4">
-        <v>12.7</v>
+        <v>3.7</v>
       </c>
       <c r="C116" s="4">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D116" s="4">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="E116" s="4">
-        <v>5.9</v>
+        <v>4.5</v>
       </c>
       <c r="F116" s="4">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="G116" s="4">
         <v>3.3</v>
@@ -5555,121 +5207,112 @@
         <v>3.3</v>
       </c>
       <c r="I116" s="4">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="J116" s="4">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="K116" s="4">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L116" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="M116" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B117" s="4">
-        <v>12.5</v>
+        <v>3.7</v>
       </c>
       <c r="C117" s="4">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D117" s="4">
-        <v>2.8</v>
+        <v>5.4</v>
       </c>
       <c r="E117" s="4">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="F117" s="4">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="G117" s="4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H117" s="4">
         <v>3.3</v>
       </c>
       <c r="I117" s="4">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="J117" s="4">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="K117" s="4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L117" s="4">
-        <v>3</v>
-      </c>
-      <c r="M117" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B118" s="4">
-        <v>12.5</v>
+        <v>3.5</v>
       </c>
       <c r="C118" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D118" s="4">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="E118" s="4">
-        <v>5.5</v>
+        <v>3.9</v>
       </c>
       <c r="F118" s="4">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="G118" s="4">
         <v>3.2</v>
       </c>
       <c r="H118" s="4">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I118" s="4">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="J118" s="4">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="K118" s="4">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="L118" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="M118" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B119" s="4">
-        <v>12.3</v>
+        <v>3.6</v>
       </c>
       <c r="C119" s="4">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D119" s="4">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="E119" s="4">
-        <v>5.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F119" s="4">
-        <v>4.0999999999999996</v>
+        <v>3.2</v>
       </c>
       <c r="G119" s="4">
         <v>3.2</v>
@@ -5678,39 +5321,36 @@
         <v>3.2</v>
       </c>
       <c r="I119" s="4">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J119" s="4">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="K119" s="4">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="L119" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="M119" s="4">
         <v>2.1</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B120" s="4">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="C120" s="4">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="D120" s="4">
-        <v>2.6</v>
+        <v>5.6</v>
       </c>
       <c r="E120" s="4">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="F120" s="4">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G120" s="4">
         <v>3.2</v>
@@ -5719,162 +5359,150 @@
         <v>3.2</v>
       </c>
       <c r="I120" s="4">
-        <v>3.2</v>
+        <v>5.3</v>
       </c>
       <c r="J120" s="4">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="K120" s="4">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="L120" s="4">
-        <v>2.9</v>
-      </c>
-      <c r="M120" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B121" s="4">
-        <v>12.6</v>
+        <v>3.5</v>
       </c>
       <c r="C121" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D121" s="4">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="E121" s="4">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="F121" s="4">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="G121" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="H121" s="4">
         <v>3.2</v>
       </c>
-      <c r="H121" s="4">
-        <v>3.1</v>
-      </c>
       <c r="I121" s="4">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="J121" s="4">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="K121" s="4">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="L121" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="M121" s="4">
         <v>1.9</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B122" s="4">
-        <v>12.2</v>
+        <v>3.6</v>
       </c>
       <c r="C122" s="4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D122" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E122" s="4">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="F122" s="4">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="G122" s="4">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H122" s="4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I122" s="4">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="J122" s="4">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="K122" s="4">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="L122" s="4">
-        <v>2.8</v>
-      </c>
-      <c r="M122" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="4">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="C123" s="4">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D123" s="4">
-        <v>2.5</v>
+        <v>5.8</v>
       </c>
       <c r="E123" s="4">
-        <v>5.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F123" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.1</v>
       </c>
       <c r="G123" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="H123" s="4">
         <v>3.1</v>
       </c>
-      <c r="H123" s="4">
-        <v>3.3</v>
-      </c>
       <c r="I123" s="4">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="J123" s="4">
-        <v>5.7</v>
+        <v>3.6</v>
       </c>
       <c r="K123" s="4">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="L123" s="4">
-        <v>3</v>
-      </c>
-      <c r="M123" s="4">
         <v>1.9</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="4">
-        <v>14.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="C124" s="4">
-        <v>4.4000000000000004</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D124" s="4">
-        <v>4.0999999999999996</v>
+        <v>6.7</v>
       </c>
       <c r="E124" s="4">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="F124" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G124" s="4">
         <v>4</v>
@@ -5883,141 +5511,129 @@
         <v>4</v>
       </c>
       <c r="I124" s="4">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="J124" s="4">
-        <v>6.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="K124" s="4">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="L124" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="M124" s="4">
         <v>2.5</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B125" s="4">
-        <v>31.9</v>
+        <v>14.7</v>
       </c>
       <c r="C125" s="4">
-        <v>14.7</v>
+        <v>14.5</v>
       </c>
       <c r="D125" s="4">
-        <v>14.5</v>
+        <v>16.7</v>
       </c>
       <c r="E125" s="4">
-        <v>16.7</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="F125" s="4">
-        <v>18.899999999999999</v>
+        <v>14.2</v>
       </c>
       <c r="G125" s="4">
-        <v>14.2</v>
+        <v>13</v>
       </c>
       <c r="H125" s="4">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="I125" s="4">
-        <v>15.5</v>
+        <v>21.2</v>
       </c>
       <c r="J125" s="4">
-        <v>21.2</v>
+        <v>17.3</v>
       </c>
       <c r="K125" s="4">
-        <v>17.3</v>
+        <v>15</v>
       </c>
       <c r="L125" s="4">
-        <v>15</v>
-      </c>
-      <c r="M125" s="4">
         <v>8.4</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B126" s="4">
-        <v>29.9</v>
+        <v>13.3</v>
       </c>
       <c r="C126" s="4">
+        <v>15</v>
+      </c>
+      <c r="D126" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="E126" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F126" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="G126" s="4">
+        <v>11.6</v>
+      </c>
+      <c r="H126" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="I126" s="4">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J126" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="K126" s="4">
         <v>13.3</v>
       </c>
-      <c r="D126" s="4">
-        <v>15</v>
-      </c>
-      <c r="E126" s="4">
-        <v>16.8</v>
-      </c>
-      <c r="F126" s="4">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G126" s="4">
-        <v>12.4</v>
-      </c>
-      <c r="H126" s="4">
-        <v>11.6</v>
-      </c>
-      <c r="I126" s="4">
-        <v>13.9</v>
-      </c>
-      <c r="J126" s="4">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="K126" s="4">
-        <v>15.3</v>
-      </c>
       <c r="L126" s="4">
-        <v>13.3</v>
-      </c>
-      <c r="M126" s="4">
         <v>7.4</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B127" s="4">
-        <v>23.2</v>
+        <v>11.1</v>
       </c>
       <c r="C127" s="4">
-        <v>11.1</v>
+        <v>13.8</v>
       </c>
       <c r="D127" s="4">
-        <v>13.8</v>
+        <v>15.4</v>
       </c>
       <c r="E127" s="4">
-        <v>15.4</v>
+        <v>14.5</v>
       </c>
       <c r="F127" s="4">
-        <v>14.5</v>
+        <v>10.1</v>
       </c>
       <c r="G127" s="4">
-        <v>10.1</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="H127" s="4">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="I127" s="4">
-        <v>11.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J127" s="4">
-        <v>16.600000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="K127" s="4">
-        <v>12.1</v>
+        <v>10.9</v>
       </c>
       <c r="L127" s="4">
-        <v>10.9</v>
-      </c>
-      <c r="M127" s="4">
         <v>6.9</v>
       </c>
     </row>
